--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/国外部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/国外部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,23 +603,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.4958273966205</v>
+        <v>598.115739714935</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>12.52695975</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-2390.2</v>
+        <v>-15097.60101504</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>392.631</v>
+      </c>
       <c r="J2" t="n">
-        <v>56.240221024</v>
+        <v>98.527026225</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -630,11 +634,9 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>-1698.59588513832</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.89744</v>
-      </c>
+        <v>-16098.5146307849</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -645,41 +647,43 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>2196.841822656</v>
+        <v>10903.52249481</v>
       </c>
       <c r="AE2" t="n">
-        <v>45.4958273966205</v>
+        <v>598.115739714935</v>
       </c>
       <c r="AF2" t="n">
-        <v>2196.841822656</v>
+        <v>11296.15349481</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>2.89744</v>
+        <v>12.52695975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.3469008281632</v>
+        <v>2006.0726007</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>11.254200648</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-2324.7</v>
+        <v>-12163.3</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>515.13</v>
+        <v>281.668268</v>
       </c>
       <c r="J3" t="n">
-        <v>70.48982895</v>
+        <v>104.512887995024</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -690,11 +694,9 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>-1440.63008888061</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.46958</v>
-      </c>
+        <v>-9204.69635607216</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -705,39 +707,43 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>2293.65635508</v>
+        <v>13473.444844704</v>
       </c>
       <c r="AE3" t="n">
-        <v>52.3469008281632</v>
+        <v>2006.0726007</v>
       </c>
       <c r="AF3" t="n">
-        <v>2293.65635508</v>
+        <v>13755.113112704</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>4.46958</v>
+        <v>11.254200648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.12555946407289</v>
+        <v>3012.85156909911</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>17.527591455598</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-3094.1</v>
+        <v>-14632.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>504.87375</v>
+      </c>
       <c r="J4" t="n">
-        <v>78.65856579</v>
+        <v>112.87119319125</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -748,11 +754,9 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>-2931.80032301058</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.1385</v>
-      </c>
+        <v>-13593.8507729064</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -763,39 +767,43 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>1849.00656207</v>
+        <v>11181.8246488778</v>
       </c>
       <c r="AE4" t="n">
-        <v>67.12555946407289</v>
+        <v>3012.85156909911</v>
       </c>
       <c r="AF4" t="n">
-        <v>1849.00656207</v>
+        <v>11686.6983988778</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>4.1385</v>
+        <v>17.527591455598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.552889966168</v>
+        <v>3832.06507210975</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>86.23493455612601</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-2964.91485281719</v>
+        <v>-14552.0992661429</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>886.123056</v>
+      </c>
       <c r="J5" t="n">
-        <v>92.72168541000001</v>
+        <v>106.185312884159</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -806,11 +814,9 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>-3563.36265850914</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.97296</v>
-      </c>
+        <v>-9190.24872264746</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -821,41 +827,43 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>2085.22030596</v>
+        <v>15240.7825983657</v>
       </c>
       <c r="AE5" t="n">
-        <v>85.552889966168</v>
+        <v>3832.06507210975</v>
       </c>
       <c r="AF5" t="n">
-        <v>2085.22030596</v>
+        <v>16126.9056543657</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>3.97296</v>
+        <v>86.23493455612601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.214420073954</v>
+        <v>2437.05</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>5.7132</v>
+        <v>121.253068041948</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-4235.60129406663</v>
+        <v>-16151.57</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1082.791356</v>
+      </c>
       <c r="J6" t="n">
-        <v>114.399281024</v>
+        <v>255.392683197255</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -866,11 +874,9 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>-5706.08313941649</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.74</v>
-      </c>
+        <v>-17056.7998795984</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -881,41 +887,45 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>2011.83391304</v>
+        <v>12551.148644</v>
       </c>
       <c r="AE6" t="n">
-        <v>118.214420073954</v>
+        <v>2437.05</v>
       </c>
       <c r="AF6" t="n">
-        <v>2011.83391304</v>
+        <v>13633.94</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>5.7132</v>
+        <v>121.253068041948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>316.986746948169</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>3030.1658776679</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="D7" t="n">
-        <v>4.37</v>
+        <v>12.2659814943525</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-10209.0533722173</v>
+        <v>-22346.4946725484</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1664.602184</v>
+      </c>
       <c r="J7" t="n">
-        <v>148.877102638</v>
+        <v>356.213156250433</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -926,7 +936,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>-10844.0140349055</v>
+        <v>-18950.262202238</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -939,41 +949,45 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>4388.230040491</v>
+        <v>14448.706189575</v>
       </c>
       <c r="AE7" t="n">
-        <v>316.986746948169</v>
+        <v>3030.1658776679</v>
       </c>
       <c r="AF7" t="n">
-        <v>4388.230040491</v>
+        <v>16123.108373575</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>4.37</v>
+        <v>12.2659814943525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.836550615591</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2686.77540216202</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.338765419993</v>
+      </c>
       <c r="D8" t="n">
-        <v>6.56557448</v>
+        <v>43.7851444608298</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-16654.5988233383</v>
+        <v>-16975.5994</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1228.8255</v>
+      </c>
       <c r="J8" t="n">
-        <v>185.742381974</v>
+        <v>412.617436591247</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -984,7 +998,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>-18482.0315980546</v>
+        <v>-13351.9771876162</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -997,41 +1011,45 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>4573.946045004</v>
+        <v>16317.906401061</v>
       </c>
       <c r="AE8" t="n">
-        <v>279.836550615591</v>
+        <v>2686.77540216202</v>
       </c>
       <c r="AF8" t="n">
-        <v>4573.946045004</v>
+        <v>17561.070666481</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>6.56557448</v>
+        <v>43.7851444608298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>421.549523547302</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>2705.97954528916</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.3476544933739</v>
+      </c>
       <c r="D9" t="n">
-        <v>16.3957448</v>
+        <v>21.7627097274279</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-23423.0596286863</v>
+        <v>-14578.44</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1458.3888</v>
+      </c>
       <c r="J9" t="n">
-        <v>189.572137924</v>
+        <v>456.239336864695</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1042,7 +1060,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>-26855.9644155398</v>
+        <v>-13120.0735533012</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1055,43 +1073,45 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>5546.26264130433</v>
+        <v>18132.9543706589</v>
       </c>
       <c r="AE9" t="n">
-        <v>421.549523547302</v>
+        <v>2705.97954528916</v>
       </c>
       <c r="AF9" t="n">
-        <v>5546.26264130433</v>
+        <v>19608.6908251523</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>16.3957448</v>
+        <v>21.7627097274279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>653.527520077766</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>1966.37755042485</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.9430558328653</v>
+      </c>
       <c r="D10" t="n">
-        <v>18.64611084</v>
+        <v>58.1736367619158</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-24226.7682600739</v>
+        <v>-7059.7435318837</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>66.67296</v>
+        <v>2254.92641279231</v>
       </c>
       <c r="J10" t="n">
-        <v>190.045091341</v>
+        <v>657.424500191926</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1102,7 +1122,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>-29208.8358460718</v>
+        <v>-1972.37557899674</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1115,41 +1135,45 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>5522.106307075</v>
+        <v>18342.197930293</v>
       </c>
       <c r="AE10" t="n">
-        <v>653.527520077766</v>
+        <v>1966.37755042485</v>
       </c>
       <c r="AF10" t="n">
-        <v>5588.779267075</v>
+        <v>20617.0673989182</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>18.64611084</v>
+        <v>58.1736367619158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.537762066262</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>1080.14708798857</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49.9496452688315</v>
+      </c>
       <c r="D11" t="n">
-        <v>733.222</v>
+        <v>37.6906310412767</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-15037.1077173648</v>
+        <v>-9173.49237174794</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>3386.19300722834</v>
+      </c>
       <c r="J11" t="n">
-        <v>140.14862136</v>
+        <v>769.155637709768</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1160,7 +1184,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>-16616.784904214</v>
+        <v>-7115.96425682464</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1173,43 +1197,45 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>7837.329258</v>
+        <v>17387.1676153986</v>
       </c>
       <c r="AE11" t="n">
-        <v>750.537762066262</v>
+        <v>1080.14708798857</v>
       </c>
       <c r="AF11" t="n">
-        <v>7837.329258</v>
+        <v>20823.3102678958</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>733.222</v>
+        <v>37.6906310412767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.115739714935</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>1903.37568998347</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.4734266346371</v>
+      </c>
       <c r="D12" t="n">
-        <v>12.52695975</v>
+        <v>16.9201652074632</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-15097.60101504</v>
+        <v>-24507.8747332783</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>392.631</v>
+        <v>3214.25508737566</v>
       </c>
       <c r="J12" t="n">
-        <v>98.527026225</v>
+        <v>999.0960935910661</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1220,7 +1246,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>-16098.5146307849</v>
+        <v>-16963.2687936292</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1233,43 +1259,45 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>10903.52249481</v>
+        <v>20777.2456559966</v>
       </c>
       <c r="AE12" t="n">
-        <v>598.115739714935</v>
+        <v>1903.37568998347</v>
       </c>
       <c r="AF12" t="n">
-        <v>11296.15349481</v>
+        <v>24047.9741700069</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>12.52695975</v>
+        <v>16.9201652074632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2006.0726007</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2123.00891892086</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42.5134645376454</v>
+      </c>
       <c r="D13" t="n">
-        <v>11.254200648</v>
+        <v>10.7081749114211</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-12163.3</v>
+        <v>-29718.7717479337</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>281.668268</v>
+        <v>2780.29142683597</v>
       </c>
       <c r="J13" t="n">
-        <v>104.512887995024</v>
+        <v>1193.71859274573</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1280,7 +1308,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>-9204.69635607216</v>
+        <v>-22734.4086465259</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
@@ -1293,507 +1321,17 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>13473.444844704</v>
+        <v>25122.1121441232</v>
       </c>
       <c r="AE13" t="n">
-        <v>2006.0726007</v>
+        <v>2123.00891892086</v>
       </c>
       <c r="AF13" t="n">
-        <v>13755.113112704</v>
+        <v>27944.9170354968</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>11.254200648</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3012.85156909911</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>17.527591455598</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>-14632.4</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>504.87375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>112.87119319125</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>-13593.8507729064</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>11181.8246488778</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3012.85156909911</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11686.6983988778</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>17.527591455598</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3832.06507210975</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>86.23493455612601</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>-14552.0992661429</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>886.123056</v>
-      </c>
-      <c r="J15" t="n">
-        <v>106.185312884159</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>-9190.24872264746</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>15240.7825983657</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>3832.06507210975</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16126.9056543657</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>86.23493455612601</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2437.05</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>121.253068041948</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>-16151.57</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1082.791356</v>
-      </c>
-      <c r="J16" t="n">
-        <v>255.392683197255</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>-17056.7998795984</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>12551.148644</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2437.05</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13633.94</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>121.253068041948</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3030.1658776679</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.2659814943525</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>-22346.4946725484</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1664.602184</v>
-      </c>
-      <c r="J17" t="n">
-        <v>356.213156250433</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>-18950.262202238</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>14448.706189575</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>3030.1658776679</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16123.108373575</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>12.2659814943525</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2686.77540216202</v>
-      </c>
-      <c r="C18" t="n">
-        <v>14.338765419993</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43.7851444608298</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>-16975.5994</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>1228.8255</v>
-      </c>
-      <c r="J18" t="n">
-        <v>412.617436591247</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>-13351.9771876162</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>16317.906401061</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2686.77540216202</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17561.070666481</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>43.7851444608298</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2705.97954528916</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17.3476544933739</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.7627097274279</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>-14578.44</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>1458.3888</v>
-      </c>
-      <c r="J19" t="n">
-        <v>456.239336864695</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>-13120.0735533012</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>18132.9543706589</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>2705.97954528916</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19608.6908251523</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>21.7627097274279</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1966.37755042485</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.9430558328653</v>
-      </c>
-      <c r="D20" t="n">
-        <v>58.1736367619158</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>-7059.7435318837</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>2254.92641279231</v>
-      </c>
-      <c r="J20" t="n">
-        <v>657.424500191926</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>-1972.37557899674</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>18342.197930293</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1966.37755042485</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>20617.0673989182</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>58.1736367619158</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1080.14708798857</v>
-      </c>
-      <c r="C21" t="n">
-        <v>49.9496452688315</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.6906310412767</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>-9173.49237174794</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>3386.19300722834</v>
-      </c>
-      <c r="J21" t="n">
-        <v>769.155637709768</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>-7115.96425682464</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>17387.1676153986</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1080.14708798857</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>20823.3102678958</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>37.6906310412767</v>
+        <v>10.7081749114211</v>
       </c>
     </row>
   </sheetData>
